--- a/Matching/configUBS.xlsx
+++ b/Matching/configUBS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xiaod\Documents\UiPath\Matching\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF7E90C7-7AAA-4FFF-B473-587A8B88D47A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01F91CAF-F54C-441F-9949-305CA4ABE88B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5568" yWindow="2496" windowWidth="23040" windowHeight="12660" activeTab="4" xr2:uid="{4467902E-518C-41AC-B9AB-CF089FFC83C8}"/>
+    <workbookView xWindow="4728" yWindow="2376" windowWidth="23040" windowHeight="12660" activeTab="4" xr2:uid="{4467902E-518C-41AC-B9AB-CF089FFC83C8}"/>
   </bookViews>
   <sheets>
     <sheet name="Targetted Search Keywords" sheetId="3" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="53">
   <si>
     <t>Recipent Name</t>
   </si>
@@ -138,17 +138,74 @@
     <t>Aerospace Engineering</t>
   </si>
   <si>
-    <t>Yes</t>
-  </si>
-  <si>
     <t>FieldSearchFlag</t>
+  </si>
+  <si>
+    <t>Data Analyst</t>
+  </si>
+  <si>
+    <t>Marketing Executive</t>
+  </si>
+  <si>
+    <t>Data Mining</t>
+  </si>
+  <si>
+    <t>Engagement</t>
+  </si>
+  <si>
+    <t>Analytics</t>
+  </si>
+  <si>
+    <t>Campaigns</t>
+  </si>
+  <si>
+    <t>Data analysis</t>
+  </si>
+  <si>
+    <t>Outreach</t>
+  </si>
+  <si>
+    <t>SAS</t>
+  </si>
+  <si>
+    <t>Website</t>
+  </si>
+  <si>
+    <t>SAP</t>
+  </si>
+  <si>
+    <t>Google</t>
+  </si>
+  <si>
+    <t>AI</t>
+  </si>
+  <si>
+    <t>Photoshop</t>
+  </si>
+  <si>
+    <t>Machine learning</t>
+  </si>
+  <si>
+    <t>Design</t>
+  </si>
+  <si>
+    <t>Power BI</t>
+  </si>
+  <si>
+    <t>Customer</t>
+  </si>
+  <si>
+    <t>Tableau</t>
+  </si>
+  <si>
+    <t>Digital</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="14"/>
       <color theme="1"/>
@@ -160,6 +217,13 @@
       <u/>
       <sz val="14"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -186,9 +250,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -536,72 +608,147 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BFBE32E-0142-42AE-9D8C-D42FE436C1D9}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.08203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.9140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.9140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.4140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" s="5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D4" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="D5" s="5"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+      <c r="D6" s="5"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+      <c r="D7" s="5"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>31</v>
       </c>
+      <c r="D8" s="5"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -671,21 +818,21 @@
       <c r="E2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="6" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="F3" s="3"/>
+      <c r="F3" s="7"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="F4" s="3"/>
+      <c r="F4" s="7"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="F5" s="3"/>
+      <c r="F5" s="7"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="F6" s="3"/>
+      <c r="F6" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -704,7 +851,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -722,7 +869,7 @@
         <v>13</v>
       </c>
       <c r="C1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D1" t="s">
         <v>17</v>
@@ -736,7 +883,7 @@
         <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
         <v>16</v>

--- a/Matching/configUBS.xlsx
+++ b/Matching/configUBS.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xiaod\Documents\UiPath\Matching\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01F91CAF-F54C-441F-9949-305CA4ABE88B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EF1C9EF-7F73-47BA-9235-ECAC05E0676C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4728" yWindow="2376" windowWidth="23040" windowHeight="12660" activeTab="4" xr2:uid="{4467902E-518C-41AC-B9AB-CF089FFC83C8}"/>
+    <workbookView xWindow="2820" yWindow="1008" windowWidth="13872" windowHeight="12660" firstSheet="2" activeTab="4" xr2:uid="{4467902E-518C-41AC-B9AB-CF089FFC83C8}"/>
   </bookViews>
   <sheets>
     <sheet name="Targetted Search Keywords" sheetId="3" r:id="rId1"/>
     <sheet name="Field Keywords Database" sheetId="4" r:id="rId2"/>
-    <sheet name="CV Keywords Database" sheetId="5" r:id="rId3"/>
+    <sheet name="CV Keywords Profile" sheetId="5" r:id="rId3"/>
     <sheet name="Email Template" sheetId="1" r:id="rId4"/>
     <sheet name="Settings" sheetId="2" r:id="rId5"/>
   </sheets>
@@ -37,8 +37,77 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Tse Kiat</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{F386F6B7-A79F-4BFA-B3D2-933FC999C36D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Tse Kiat:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+user keyword for input search at job portal</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Tse Kiat</author>
+  </authors>
+  <commentList>
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{08A2F1A6-083A-4B42-B2F8-ADE3A7906151}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Tse Kiat:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+not in use at the moment
+propose to set as Flag to let user choose to input keyword on spot</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="75">
   <si>
     <t>Recipent Name</t>
   </si>
@@ -78,12 +147,6 @@
 regards</t>
   </si>
   <si>
-    <t>Output FileName0</t>
-  </si>
-  <si>
-    <t>1Windows Credentials for Email</t>
-  </si>
-  <si>
     <t>UiPath Credentials</t>
   </si>
   <si>
@@ -199,13 +262,85 @@
   </si>
   <si>
     <t>Digital</t>
+  </si>
+  <si>
+    <t>Output FileName</t>
+  </si>
+  <si>
+    <t>Windows Credentials for Email</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>a level</t>
+  </si>
+  <si>
+    <t>advance diploma</t>
+  </si>
+  <si>
+    <t>a'level</t>
+  </si>
+  <si>
+    <t>a-level</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bachelor </t>
+  </si>
+  <si>
+    <t>bachelor's degree</t>
+  </si>
+  <si>
+    <t>degree</t>
+  </si>
+  <si>
+    <t>diploma</t>
+  </si>
+  <si>
+    <t>doctorate degree</t>
+  </si>
+  <si>
+    <t>graduate diploma</t>
+  </si>
+  <si>
+    <t>higher diploma</t>
+  </si>
+  <si>
+    <t>higher nitec</t>
+  </si>
+  <si>
+    <t>master's degree</t>
+  </si>
+  <si>
+    <t>nitec</t>
+  </si>
+  <si>
+    <t>o level</t>
+  </si>
+  <si>
+    <t>o'level</t>
+  </si>
+  <si>
+    <t>o-level</t>
+  </si>
+  <si>
+    <t>post graduate diploma</t>
+  </si>
+  <si>
+    <t>post master's degree</t>
+  </si>
+  <si>
+    <t>professional degree</t>
+  </si>
+  <si>
+    <t>psle</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="14"/>
       <color theme="1"/>
@@ -223,6 +358,26 @@
     </font>
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -246,11 +401,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -265,10 +421,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{EE54C88B-1660-4224-A50B-EEA22577848E}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -579,12 +737,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{559F42F7-8BA6-407C-A4F3-6F5963B3723A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{559F42F7-8BA6-407C-A4F3-6F5963B3723A}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
@@ -593,16 +749,17 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -624,124 +781,124 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D5" s="5"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D6" s="5"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D7" s="5"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D8" s="5"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
@@ -754,12 +911,128 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97C2F872-4080-4225-A2D9-FFAC829391C5}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="14.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" s="8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A5" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A11" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A12" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A13" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A14" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A15" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A16" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A17" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A18" s="8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A19" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A20" s="8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A21" s="8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A22" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -847,11 +1120,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E82C04F-78DB-411F-AE2E-F4B8C5DCE7BA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E82C04F-78DB-411F-AE2E-F4B8C5DCE7BA}">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -863,34 +1136,35 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="B1" t="s">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="C1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" t="s">
-        <v>16</v>
-      </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>